--- a/Web_Crawling/Product.xlsx
+++ b/Web_Crawling/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Desktop\SSCC_Project\Web_Crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08D2F8C-C933-4568-954F-AC9F544F024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930FF6E-EB8C-4A84-927E-8DBFF4DCD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="5020" windowWidth="19200" windowHeight="11260" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
+    <workbookView xWindow="4990" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>pcodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASROCK B660M PRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GIGABYTE B760M AORUS ELITE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTEL i7-12700KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이크론 Crucial P3 M.2 NVMe (1TB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이크론 2300 M.2 NVMe (1TB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Western Digital WD Blue SA510 M.2 NVMe (1TB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Western Digital WD Blue M.2 NVMe (1TB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Western Digital WD BLACK SN770 M.2 NVMe (1TB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +275,17 @@
   </si>
   <si>
     <t>앱코 NCORE 사일런티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASROCK B660M PRO RS D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermalright Assassin X 120 Refined SE 서린</t>
+  </si>
+  <si>
+    <t>마이크론 Crucial P3 Plus M.2 NVMe (1TB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +308,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,12 +340,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823BB6A-131B-474B-AA2A-81917E9F6827}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A55"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -693,6 +695,9 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1">
+        <v>18038831</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -701,13 +706,19 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="1">
+        <v>16101464</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15594701</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -718,13 +729,19 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="1">
+        <v>18640379</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16094585</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -732,7 +749,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18651545</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -740,7 +760,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15609158</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -749,7 +772,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15693419</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -757,7 +783,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18330335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -765,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18060362</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -776,7 +805,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18265187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -784,7 +816,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15605054</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -792,15 +827,21 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14110475</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16208849</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -808,135 +849,186 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12398060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17450348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16525058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9338742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18294482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15759071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>14602436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13562714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13276568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17454683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12920228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15796520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16587515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13161338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>17730380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16761773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>17103071</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -944,7 +1036,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>18087947</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -952,7 +1047,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14724566</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -960,7 +1058,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13853267</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -968,7 +1069,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>16188842</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -976,7 +1080,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>12487301</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -984,7 +1091,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>17702204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -992,15 +1102,21 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>16188995</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3969924</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1008,7 +1124,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7924210</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1016,7 +1135,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10214016</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1024,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>10214016</v>
+        <v>10214103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1035,10 +1157,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1">
-        <v>10214103</v>
+        <v>4712710</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -1046,10 +1168,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1">
-        <v>4712710</v>
+        <v>4678115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1057,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
-        <v>4678115</v>
+        <v>18632921</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1068,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1">
-        <v>18632921</v>
+        <v>6482453</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1079,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1">
-        <v>6482453</v>
+        <v>10091829</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1090,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>10091829</v>
+        <v>10038555</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1101,7 +1223,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>16437518</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1109,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>16437518</v>
+        <v>17783126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1120,10 +1245,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
-        <v>17783126</v>
+        <v>13164492</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1131,10 +1256,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
-        <v>13164492</v>
+        <v>10208670</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1142,20 +1267,9 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1">
-        <v>10208670</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="1">
         <v>13384388</v>
       </c>
     </row>

--- a/Web_Crawling/Product.xlsx
+++ b/Web_Crawling/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Desktop\SSCC_Project\Web_Crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930FF6E-EB8C-4A84-927E-8DBFF4DCD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1146CAD-EDD5-41BD-9F4E-083D7008D762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4990" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
   </bookViews>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823BB6A-131B-474B-AA2A-81917E9F6827}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Web_Crawling/Product.xlsx
+++ b/Web_Crawling/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Desktop\SSCC_Project\Web_Crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1146CAD-EDD5-41BD-9F4E-083D7008D762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5569D6-8C82-44EE-8783-578631687BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4990" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
   </bookViews>
@@ -293,6 +293,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,15 +672,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823BB6A-131B-474B-AA2A-81917E9F6827}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -684,7 +690,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -695,7 +701,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>18038831</v>
       </c>
     </row>
@@ -706,7 +712,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>16101464</v>
       </c>
     </row>
@@ -717,7 +723,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>15594701</v>
       </c>
       <c r="F4" s="1"/>
@@ -729,7 +735,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>18640379</v>
       </c>
     </row>
@@ -740,7 +746,7 @@
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>16094585</v>
       </c>
     </row>
@@ -751,7 +757,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>18651545</v>
       </c>
     </row>
@@ -762,7 +768,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>15609158</v>
       </c>
       <c r="F8" s="1"/>
@@ -774,7 +780,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>15693419</v>
       </c>
     </row>
@@ -785,7 +791,7 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>18330335</v>
       </c>
     </row>
@@ -796,7 +802,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>18060362</v>
       </c>
     </row>
@@ -807,7 +813,7 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>18265187</v>
       </c>
     </row>
@@ -818,7 +824,7 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>15605054</v>
       </c>
     </row>
@@ -829,7 +835,7 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>14110475</v>
       </c>
     </row>
@@ -840,7 +846,7 @@
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>16208849</v>
       </c>
     </row>
@@ -851,7 +857,7 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>12398060</v>
       </c>
     </row>
@@ -862,7 +868,7 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>17450348</v>
       </c>
     </row>
@@ -873,7 +879,7 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>16525058</v>
       </c>
     </row>
@@ -884,7 +890,7 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>9338742</v>
       </c>
     </row>
@@ -895,7 +901,7 @@
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>18294482</v>
       </c>
     </row>
@@ -906,7 +912,7 @@
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>15759071</v>
       </c>
     </row>
@@ -917,7 +923,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>14602436</v>
       </c>
     </row>
@@ -928,7 +934,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>13562714</v>
       </c>
     </row>
@@ -939,7 +945,7 @@
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>13276568</v>
       </c>
     </row>
@@ -950,7 +956,7 @@
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>17454683</v>
       </c>
     </row>
@@ -961,7 +967,7 @@
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>12920228</v>
       </c>
     </row>
@@ -972,7 +978,7 @@
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>15796520</v>
       </c>
     </row>
@@ -983,7 +989,7 @@
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>16587515</v>
       </c>
     </row>
@@ -994,7 +1000,7 @@
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>13161338</v>
       </c>
     </row>
@@ -1005,7 +1011,7 @@
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>17730380</v>
       </c>
     </row>
@@ -1016,7 +1022,7 @@
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>16761773</v>
       </c>
     </row>
@@ -1027,7 +1033,7 @@
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>17103071</v>
       </c>
     </row>
@@ -1038,7 +1044,7 @@
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>18087947</v>
       </c>
     </row>
@@ -1049,7 +1055,7 @@
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>14724566</v>
       </c>
     </row>
@@ -1060,7 +1066,7 @@
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>13853267</v>
       </c>
     </row>
@@ -1071,7 +1077,7 @@
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>16188842</v>
       </c>
     </row>
@@ -1082,7 +1088,7 @@
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>12487301</v>
       </c>
     </row>
@@ -1093,7 +1099,7 @@
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>17702204</v>
       </c>
     </row>
@@ -1104,7 +1110,7 @@
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>16188995</v>
       </c>
     </row>
@@ -1115,7 +1121,7 @@
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>3969924</v>
       </c>
     </row>
@@ -1126,7 +1132,7 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>7924210</v>
       </c>
     </row>
@@ -1137,7 +1143,7 @@
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>10214016</v>
       </c>
     </row>
@@ -1148,7 +1154,7 @@
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>10214103</v>
       </c>
     </row>
@@ -1159,7 +1165,7 @@
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>4712710</v>
       </c>
     </row>
@@ -1170,7 +1176,7 @@
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>4678115</v>
       </c>
     </row>
@@ -1181,7 +1187,7 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>18632921</v>
       </c>
     </row>
@@ -1192,7 +1198,7 @@
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>6482453</v>
       </c>
     </row>
@@ -1203,7 +1209,7 @@
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>10091829</v>
       </c>
     </row>
@@ -1214,7 +1220,7 @@
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>10038555</v>
       </c>
     </row>
@@ -1225,7 +1231,7 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>16437518</v>
       </c>
     </row>
@@ -1236,7 +1242,7 @@
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>17783126</v>
       </c>
     </row>
@@ -1247,7 +1253,7 @@
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>13164492</v>
       </c>
     </row>
@@ -1258,7 +1264,7 @@
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>10208670</v>
       </c>
     </row>
@@ -1269,12 +1275,13 @@
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>13384388</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Web_Crawling/Product.xlsx
+++ b/Web_Crawling/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Desktop\SSCC_Project\Web_Crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5569D6-8C82-44EE-8783-578631687BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538A940-844B-46F3-B766-3A6705AB56F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>pcodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,7 +360,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,6 +382,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5056AF4E-8753-4F2A-86B1-773720B03EB6}" name="표2" displayName="표2" ref="A1:C54" totalsRowShown="0">
+  <autoFilter ref="A1:C54" xr:uid="{5056AF4E-8753-4F2A-86B1-773720B03EB6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{029C693C-F380-46C5-A791-86D9FCEB86A1}" name="Kinds" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{81D68F8A-C849-477F-A48F-3F75AF57FEEC}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4200B392-8B4D-4D13-9318-A9DBA2D9688B}" name="pcodes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +696,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1283,5 +1306,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Web_Crawling/Product.xlsx
+++ b/Web_Crawling/Product.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Won\Desktop\SSCC_Project\Web_Crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538A940-844B-46F3-B766-3A6705AB56F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D42941-7E31-48D7-8CEA-BA3B4872778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
+    <workbookView xWindow="20985" yWindow="3075" windowWidth="28800" windowHeight="11415" xr2:uid="{F3A88647-C8E6-4EA6-BD1A-BE3404E7B3A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>pcodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,7 +314,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -350,11 +350,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,15 +695,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B823BB6A-131B-474B-AA2A-81917E9F6827}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>18038831</v>
       </c>
     </row>
@@ -735,7 +735,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>16101464</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>15594701</v>
       </c>
       <c r="F4" s="1"/>
@@ -758,7 +758,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>18640379</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>16094585</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>18651545</v>
       </c>
     </row>
@@ -791,7 +791,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>15609158</v>
       </c>
       <c r="F8" s="1"/>
@@ -803,7 +803,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>15693419</v>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>18330335</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>18060362</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>18265187</v>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>15605054</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>14110475</v>
       </c>
     </row>
@@ -866,10 +866,10 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>16208849</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>12398060</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>17450348</v>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>16525058</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>9338742</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>18294482</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>15759071</v>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>14602436</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>13562714</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>13276568</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>17454683</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>12920228</v>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>15796520</v>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>16587515</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>13161338</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>17730380</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>16761773</v>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>17103071</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>18087947</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>14724566</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>13853267</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>16188842</v>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>12487301</v>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>17702204</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>16188995</v>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>3969924</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>7924210</v>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>10214016</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>10214103</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>4712710</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>4678115</v>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>18632921</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="B47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>6482453</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>10091829</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>10038555</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>16437518</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>17783126</v>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>13164492</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>10208670</v>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>13384388</v>
       </c>
     </row>
